--- a/Plancheck/plancheck_data/check_protocol/v19/STEC foie RA.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/STEC foie RA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1516,8 +1516,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -2720,7 +2720,7 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
